--- a/src/main/java/by/itacademy/brest/common/progress_report.xlsx
+++ b/src/main/java/by/itacademy/brest/common/progress_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPAM_MY\it-academy\my_sources\it-academy\src\main\java\by\itacademy\brest\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBBC499-9361-4FE7-B3F6-5B991A63054E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0A1AD-0E97-4A62-8C00-20C8DAF35D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
+    <workbookView xWindow="3660" yWindow="1308" windowWidth="17280" windowHeight="8964" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>ДЗ-7</t>
   </si>
@@ -131,6 +131,15 @@
       </rPr>
       <t>date: 2023.09.26</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> +</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +-</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -519,11 +528,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,6 +692,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FCFA3-EA9D-4155-9FC8-2DF4572261E9}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,11 +1042,12 @@
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="20" t="s">
         <v>22</v>
@@ -946,57 +1064,60 @@
       <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
     </row>
-    <row r="2" spans="1:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1012,11 +1133,17 @@
       <c r="E2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="2"/>
+      <c r="F2" s="34">
+        <v>9</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1028,10 +1155,11 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1047,11 +1175,17 @@
       <c r="E3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="2"/>
+      <c r="F3" s="34">
+        <v>8.6</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1063,10 +1197,11 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="10"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1082,11 +1217,17 @@
       <c r="E4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="34">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1098,10 +1239,11 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="10"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1117,11 +1259,17 @@
       <c r="E5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="2"/>
+      <c r="F5" s="34">
+        <v>8.5</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1133,10 +1281,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="10"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="1:23" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -1152,11 +1301,17 @@
       <c r="E6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="11"/>
+      <c r="F6" s="35">
+        <v>7.9</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -1168,17 +1323,18 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="13"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1194,8 +1350,9 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
@@ -1220,8 +1377,9 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5" t="s">
@@ -1246,6 +1404,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/by/itacademy/brest/common/progress_report.xlsx
+++ b/src/main/java/by/itacademy/brest/common/progress_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPAM_MY\it-academy\my_sources\it-academy\src\main\java\by\itacademy\brest\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0A1AD-0E97-4A62-8C00-20C8DAF35D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D903612-467D-411E-8ABC-3A36C0750CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1308" windowWidth="17280" windowHeight="8964" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
+    <workbookView xWindow="-24930" yWindow="2475" windowWidth="17280" windowHeight="8970" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
-  <si>
-    <t>ДЗ-7</t>
-  </si>
-  <si>
-    <t>КР-3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>ДЗ-8</t>
   </si>
@@ -140,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve"> +-</t>
+  </si>
+  <si>
+    <t>Presence 2023.10.03</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FCFA3-EA9D-4155-9FC8-2DF4572261E9}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,103 +1044,102 @@
     <col min="10" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
-    <row r="2" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="34">
         <v>9</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="28"/>
-      <c r="J2" s="18"/>
+      <c r="J2" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1155,37 +1151,38 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="10"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="34">
         <v>8.6</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1197,37 +1194,38 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="10"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="34">
         <v>8.8000000000000007</v>
       </c>
       <c r="G4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="32" t="s">
-        <v>30</v>
-      </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1239,37 +1237,38 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="10"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="34">
         <v>8.5</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="32" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="28"/>
-      <c r="J5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1281,37 +1280,38 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="10"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="10"/>
     </row>
-    <row r="6" spans="1:24" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="35">
         <v>7.9</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I6" s="29"/>
-      <c r="J6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -1323,11 +1323,10 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="13"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1350,13 +1349,12 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1377,13 +1375,12 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1404,7 +1401,6 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/by/itacademy/brest/common/progress_report.xlsx
+++ b/src/main/java/by/itacademy/brest/common/progress_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPAM_MY\it-academy\my_sources\it-academy\src\main\java\by\itacademy\brest\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D903612-467D-411E-8ABC-3A36C0750CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79C694-DA1F-4D99-9700-065E0E4939B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24930" yWindow="2475" windowWidth="17280" windowHeight="8970" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FCFA3-EA9D-4155-9FC8-2DF4572261E9}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,7 +1136,9 @@
       <c r="H2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="28">
+        <v>9.625</v>
+      </c>
       <c r="J2" s="18" t="s">
         <v>26</v>
       </c>
@@ -1179,7 +1181,9 @@
       <c r="H3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="28">
+        <v>8.2799999999999994</v>
+      </c>
       <c r="J3" s="18" t="s">
         <v>26</v>
       </c>
@@ -1222,7 +1226,9 @@
       <c r="H4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="28"/>
+      <c r="I4" s="28">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="J4" s="18" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +1271,9 @@
       <c r="H5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="28">
+        <v>7.57</v>
+      </c>
       <c r="J5" s="18" t="s">
         <v>26</v>
       </c>

--- a/src/main/java/by/itacademy/brest/common/progress_report.xlsx
+++ b/src/main/java/by/itacademy/brest/common/progress_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPAM_MY\it-academy\my_sources\it-academy\src\main\java\by\itacademy\brest\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79C694-DA1F-4D99-9700-065E0E4939B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D17BDE-D036-4A56-BC75-91D5D69EC3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
   </bookViews>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1142,9 @@
       <c r="J2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2">
+        <v>9.375</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1187,7 +1189,9 @@
       <c r="J3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3">
+        <v>7.75</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1232,7 +1236,9 @@
       <c r="J4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1272,12 +1278,14 @@
         <v>28</v>
       </c>
       <c r="I5" s="28">
-        <v>7.57</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>8.5</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1316,7 +1324,9 @@
       <c r="H6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="29">
+        <v>8.14</v>
+      </c>
       <c r="J6" s="19" t="s">
         <v>26</v>
       </c>

--- a/src/main/java/by/itacademy/brest/common/progress_report.xlsx
+++ b/src/main/java/by/itacademy/brest/common/progress_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPAM_MY\it-academy\my_sources\it-academy\src\main\java\by\itacademy\brest\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A57F54D-6853-449B-986D-5BE3FC0FDB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C102167-BA66-4D6B-8BF3-78DB75A1AAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>Presence 2023.24.05</t>
   </si>
   <si>
-    <t>HW-5</t>
+    <t>HW-5       7-8</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,7 +869,9 @@
       <c r="M2" s="16">
         <v>5.6</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="N2" s="16">
+        <v>8</v>
+      </c>
       <c r="O2" s="15" t="s">
         <v>22</v>
       </c>
@@ -924,7 +926,9 @@
       <c r="M3" s="16">
         <v>5.3</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="17">
+        <v>4</v>
+      </c>
       <c r="O3" s="15" t="s">
         <v>22</v>
       </c>
@@ -979,7 +983,9 @@
       <c r="M4" s="16">
         <v>3.3</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="16">
+        <v>4</v>
+      </c>
       <c r="O4" s="15" t="s">
         <v>22</v>
       </c>
@@ -1034,7 +1040,9 @@
       <c r="M5" s="16">
         <v>7.66</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="16">
+        <v>7</v>
+      </c>
       <c r="O5" s="15" t="s">
         <v>22</v>
       </c>

--- a/src/main/java/by/itacademy/brest/common/progress_report.xlsx
+++ b/src/main/java/by/itacademy/brest/common/progress_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPAM_MY\it-academy\my_sources\it-academy\src\main\java\by\itacademy\brest\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C102167-BA66-4D6B-8BF3-78DB75A1AAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9011C8-F767-4B9E-84C0-268B271BFDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29D677ED-0CB4-4DB8-98E3-E13E0655C302}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
-  <si>
-    <t>КР-C</t>
-  </si>
-  <si>
-    <t>КР-E</t>
-  </si>
-  <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>Средняя текущая</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
   <si>
     <t>Экзамен</t>
   </si>
@@ -96,9 +84,6 @@
   </si>
   <si>
     <t>HW-3</t>
-  </si>
-  <si>
-    <t>HW-4</t>
   </si>
   <si>
     <r>
@@ -118,32 +103,47 @@
     <t xml:space="preserve"> +</t>
   </si>
   <si>
-    <t>Revision</t>
-  </si>
-  <si>
     <t xml:space="preserve"> +-</t>
   </si>
   <si>
-    <t>Presence 2023.10.03</t>
-  </si>
-  <si>
-    <t>Presence 2023.12.03</t>
-  </si>
-  <si>
-    <t>Presence 2023.19.04</t>
-  </si>
-  <si>
-    <t>Presence 2023.24.05</t>
-  </si>
-  <si>
     <t>HW-5       7-8</t>
+  </si>
+  <si>
+    <t>Revision 2023.10.03</t>
+  </si>
+  <si>
+    <t>Presence 2023.10.05</t>
+  </si>
+  <si>
+    <t>Presence 2023.10.10</t>
+  </si>
+  <si>
+    <t>Presence 2023.10.12</t>
+  </si>
+  <si>
+    <t>Revision 2023.10.17</t>
+  </si>
+  <si>
+    <t>Presence 2023.10.19</t>
+  </si>
+  <si>
+    <t>Presence 2023.10.24.</t>
+  </si>
+  <si>
+    <t>Presence 2023.10.26.</t>
+  </si>
+  <si>
+    <t>HW-5       10-12</t>
+  </si>
+  <si>
+    <t>Presence 2023.11.06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +177,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +213,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -383,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -402,7 +419,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -428,9 +444,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -746,369 +770,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FCFA3-EA9D-4155-9FC8-2DF4572261E9}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="14"/>
+      <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15">
+        <v>9</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="15">
+        <v>9.625</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="N2" s="15">
         <v>8</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="16">
-        <v>9</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="16">
-        <v>9.625</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="16">
-        <v>9.375</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="16">
-        <v>5.6</v>
-      </c>
-      <c r="N2" s="16">
-        <v>8</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="15"/>
+      <c r="O2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="15">
+        <v>7.33</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="14"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15">
         <v>8.6</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="15">
         <v>8.2799999999999994</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="17">
-        <v>7.75</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="16">
+      <c r="J3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="15">
         <v>5.3</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="16">
         <v>4</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="15"/>
+      <c r="O3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="14"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="16">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="16">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="16">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="16">
+      <c r="K4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="19">
         <v>3.3</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="19">
         <v>4</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="15"/>
+      <c r="O4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="B5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="15">
         <v>8.5</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="G5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="15">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="16">
+      <c r="J5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="15">
         <v>7.66</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>7</v>
       </c>
-      <c r="O5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="15"/>
+      <c r="O5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="14"/>
     </row>
-    <row r="6" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+    <row r="6" spans="1:22" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="B6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="22">
         <v>7.9</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="18">
+      <c r="G6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="22">
         <v>8.14</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="J6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
     </row>
-    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1130,13 +1170,12 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1156,13 +1195,12 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1182,7 +1220,9 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
